--- a/17-Visual State Effects 视觉 状态效果.xlsx
+++ b/17-Visual State Effects 视觉 状态效果.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="186">
   <si>
     <t>英文</t>
   </si>
@@ -138,6 +138,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">x：动画ID
 </t>
     </r>
@@ -177,29 +184,6 @@
       </rPr>
       <t xml:space="preserve">
 移除该状态时，播放的战斗动画</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">x：动画ID
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不适用于没有图标的状态或死亡状态。</t>
     </r>
   </si>
   <si>
@@ -2354,7 +2338,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2444,349 +2428,349 @@
         <v>19</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:4">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
         <v>69</v>
-      </c>
-      <c r="D35" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="36" ht="54" spans="1:4">
       <c r="A36" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
         <v>72</v>
-      </c>
-      <c r="D36" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:3">
       <c r="A37" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" ht="81" spans="1:4">
       <c r="A40" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="D40" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" ht="162" spans="1:5">
       <c r="A43" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="16" t="s">
+      <c r="D43" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="E43" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" ht="40.5" spans="1:3">
       <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2816,616 +2800,616 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="18.75" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
         <v>115</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
         <v>115</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
         <v>124</v>
       </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
         <v>126</v>
       </c>
-      <c r="B21" t="s">
-        <v>127</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
         <v>128</v>
       </c>
-      <c r="B22" t="s">
-        <v>129</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="18.75" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" t="s">
         <v>173</v>
       </c>
-      <c r="B48" t="s">
-        <v>174</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
         <v>175</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
         <v>115</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" t="s">
         <v>126</v>
       </c>
-      <c r="B53" t="s">
-        <v>127</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" t="s">
         <v>128</v>
       </c>
-      <c r="B54" t="s">
-        <v>129</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" ht="25.5" spans="1:3">
       <c r="A56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="C56" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
         <v>126</v>
       </c>
-      <c r="B57" t="s">
-        <v>127</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s">
         <v>128</v>
       </c>
-      <c r="B58" t="s">
-        <v>129</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/17-Visual State Effects 视觉 状态效果.xlsx
+++ b/17-Visual State Effects 视觉 状态效果.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="216">
   <si>
     <t>英文</t>
   </si>
@@ -190,6 +190,9 @@
     <t>&lt;Repeat Animation: x&gt;</t>
   </si>
   <si>
+    <t>角色、职业、技能、武器、防具、敌人、状态</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -287,6 +290,9 @@
   <si>
     <t>如果您想使用不同的大小，
 我们建议您使用＜Repeat Animation:x＞notetag查看Effkseer自定义动画。</t>
+  </si>
+  <si>
+    <t>&lt;Custom Overlay: States_Shield_1y&gt;</t>
   </si>
   <si>
     <t>&lt;State Motion: Walk&gt;</t>
@@ -895,6 +901,18 @@
     <t>在应用和删除时显示状态弹出窗口？</t>
   </si>
   <si>
+    <t xml:space="preserve">   Allow Duplicates?:</t>
+  </si>
+  <si>
+    <t>是否允许重复的状态弹出窗口与相同的图形框架一起出现？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Battle End Popups?:</t>
+  </si>
+  <si>
+    <t>在战斗结束时显示 删除状态 弹出窗口 以 删除战斗状态？</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Add State Format:</t>
   </si>
   <si>
@@ -1039,6 +1057,97 @@
   </si>
   <si>
     <t>ture</t>
+  </si>
+  <si>
+    <t>Response Popup Settings</t>
+  </si>
+  <si>
+    <t>Counter Popup</t>
+  </si>
+  <si>
+    <t>反击 Popups</t>
+  </si>
+  <si>
+    <t>Text:</t>
+  </si>
+  <si>
+    <t>效果激活时显示的文本。</t>
+  </si>
+  <si>
+    <t>COUNTER!</t>
+  </si>
+  <si>
+    <t>反击！</t>
+  </si>
+  <si>
+    <t>Icon Index:</t>
+  </si>
+  <si>
+    <t>此弹窗使用什么图标？</t>
+  </si>
+  <si>
+    <t>Text Color:</t>
+  </si>
+  <si>
+    <t>文本颜色。系统颜色号 或 #rrggbb</t>
+  </si>
+  <si>
+    <t>Flash Color:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调整弹出窗口的闪烁颜色。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>格式: [红, 绿, 蓝, 透明]</t>
+    </r>
+  </si>
+  <si>
+    <t>[255, 255, 255, 160]</t>
+  </si>
+  <si>
+    <t>Flash Duration:</t>
+  </si>
+  <si>
+    <t>闪光效果的持续时间是多少帧？</t>
+  </si>
+  <si>
+    <t>Reflect Popup</t>
+  </si>
+  <si>
+    <t>反射 Popups</t>
+  </si>
+  <si>
+    <t>REFLECT!</t>
+  </si>
+  <si>
+    <t>反射！</t>
+  </si>
+  <si>
+    <t>Substitute Popup</t>
+  </si>
+  <si>
+    <t>替换 Popups</t>
+  </si>
+  <si>
+    <t>COVER!</t>
+  </si>
+  <si>
+    <t>替换！</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1160,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,6 +1258,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1651,137 +1767,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1848,10 +1964,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1945,7 +2064,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8305165" y="3964940"/>
+          <a:off x="8924290" y="4307840"/>
           <a:ext cx="5030470" cy="3354070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1992,7 +2111,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9696450" y="1676400"/>
+          <a:off x="10144125" y="1676400"/>
           <a:ext cx="2752725" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2309,8 +2428,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2335,16 +2454,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="36.375" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="59.375" customWidth="1"/>
     <col min="4" max="4" width="39.75" customWidth="1"/>
     <col min="5" max="5" width="33.875" customWidth="1"/>
@@ -2431,346 +2550,349 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="27" spans="1:4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
+      <c r="B11" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="51" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="51" spans="1:6">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:4">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" ht="54" spans="1:4">
       <c r="A36" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:3">
       <c r="A37" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" ht="81" spans="1:4">
       <c r="A40" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" ht="162" spans="1:5">
       <c r="A43" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" ht="40.5" spans="1:3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2784,507 +2906,509 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="2" width="67.875" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="18.75" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="18.75" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>97</v>
+      </c>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="6" t="s">
         <v>167</v>
       </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D46"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
@@ -3301,115 +3425,346 @@
       <c r="A48" t="s">
         <v>172</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" ht="25.5" spans="1:3">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" customFormat="1" spans="1:4">
+      <c r="A63" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" ht="25.5" spans="1:3">
-      <c r="A56" t="s">
-        <v>182</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>185</v>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
